--- a/spark-cv/data/grants.xlsx
+++ b/spark-cv/data/grants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spark-brc_gits\spark-brc.github.io\spark-cv\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seonggyu.park/Documents/spark_gits/spark-web/public/spark-cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1374FA25-523A-4579-BA96-47B2D1176181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF957DF8-092A-8247-A42F-9A1FB341204F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="43200" windowHeight="17355" xr2:uid="{2F3CED88-84B5-4249-9663-01EB28D3FE1D}"/>
+    <workbookView xWindow="18580" yWindow="-31220" windowWidth="38000" windowHeight="30960" xr2:uid="{2F3CED88-84B5-4249-9663-01EB28D3FE1D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -199,7 +199,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -293,9 +293,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -333,7 +333,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -439,7 +439,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -581,7 +581,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -591,23 +591,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4605E665-D6A4-C749-961B-EF6BCFDB74F3}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="114.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="114.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="49.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="49.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -651,91 +651,91 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="3">
+        <v>44927</v>
+      </c>
+      <c r="H2" s="4">
+        <v>46022</v>
+      </c>
+      <c r="I2" s="5">
+        <v>734219</v>
+      </c>
+      <c r="J2">
+        <v>0.5</v>
+      </c>
+      <c r="K2">
+        <v>0.5</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="3">
-        <v>45444</v>
-      </c>
-      <c r="H2" s="3">
-        <v>47269</v>
-      </c>
-      <c r="I2" s="9">
+      <c r="G4" s="3">
+        <v>45540</v>
+      </c>
+      <c r="H4" s="3">
+        <v>47365</v>
+      </c>
+      <c r="I4" s="9">
         <v>4999387</v>
       </c>
-      <c r="J2">
+      <c r="J4">
         <v>0.2</v>
       </c>
-      <c r="K2">
+      <c r="K4">
         <v>0.2</v>
       </c>
-      <c r="N2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="3">
-        <v>44927</v>
-      </c>
-      <c r="H3" s="4">
-        <v>46022</v>
-      </c>
-      <c r="I3" s="5">
-        <v>734219</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
-      </c>
-      <c r="K3">
-        <v>0.5</v>
-      </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -774,98 +774,98 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G6" s="3">
-        <v>45231</v>
+        <v>44927</v>
       </c>
       <c r="H6" s="4">
-        <v>45382</v>
+        <v>46022</v>
       </c>
       <c r="I6" s="5">
-        <v>20000</v>
+        <v>540000</v>
       </c>
       <c r="J6">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
+    <row r="7" spans="1:14">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="3">
-        <v>44927</v>
-      </c>
-      <c r="H7" s="4">
-        <v>46022</v>
-      </c>
-      <c r="I7" s="5">
-        <v>540000</v>
-      </c>
-      <c r="J7">
-        <v>0.3</v>
-      </c>
-      <c r="K7">
-        <v>0.5</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-      <c r="N7" t="b">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="3">
+        <v>45231</v>
+      </c>
+      <c r="H8" s="4">
+        <v>45382</v>
+      </c>
+      <c r="I8" s="5">
+        <v>20000</v>
+      </c>
+      <c r="J8">
+        <v>0.7</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -990,7 +990,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -998,7 +998,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1111,7 +1111,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M6" r:id="rId1" xr:uid="{93C429AB-1EDF-40B9-B2B5-A03AA2D3B352}"/>
+    <hyperlink ref="M8" r:id="rId1" xr:uid="{93C429AB-1EDF-40B9-B2B5-A03AA2D3B352}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
